--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>821377.8976754565</v>
+        <v>847319.8939364501</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484441</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7448964.956959024</v>
+        <v>7486843.747569792</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>357.2442099924218</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -722,7 +722,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>308.0653468017233</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -823,19 +823,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>137.8413084154375</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>178.0476661182472</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -880,10 +880,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>213.7288355705588</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>304.8560030330712</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1054,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>129.3244875106742</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1117,7 +1117,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>227.2287237108465</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>160.6139055414021</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -1291,7 +1291,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1300,7 +1300,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>188.9372674261659</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>99.57527650639548</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>163.5395542426794</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>18.2277202765949</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170492</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>41.94061297377392</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1613,7 +1613,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>161.4258646586666</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1661,7 +1661,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1670,7 +1670,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>403.569985708015</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>148.8597651553002</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>52.51170991984779</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1856,13 +1856,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>212.1880754063483</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1901,7 +1901,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>91.39226931002156</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2005,10 +2005,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.7104661047841</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>103.828474294603</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>154.0254420454376</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2147,7 +2147,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>136.1921297287216</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2494,7 +2494,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>50.38971918733565</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>152.7178278970207</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2725,10 +2725,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>129.2606839525049</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2962,13 +2962,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>160.788496495006</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>22.28534392847736</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3253,7 +3253,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>89.78186289252659</v>
+        <v>85.55329631630718</v>
       </c>
     </row>
     <row r="35">
@@ -3424,25 +3424,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776672</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>115.7595572937994</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3661,10 +3661,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3673,13 +3673,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170435</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3727,7 +3727,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>173.1284582071252</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325676</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888151</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3949,7 +3949,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479132298</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4147,13 +4147,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>124.4124267272029</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>954.6459714054656</v>
+        <v>2074.34866055446</v>
       </c>
       <c r="C2" t="n">
-        <v>920.543902629293</v>
+        <v>1636.206187737883</v>
       </c>
       <c r="D2" t="n">
-        <v>491.9622283665614</v>
+        <v>1200.296402912327</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2278875652606</v>
+        <v>766.5216580706226</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>338.6542284798304</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>338.6542284798304</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.52407392304666</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031045</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1092.064618311664</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489121</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489121</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489121</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489121</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797681</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756276</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2454.54917696077</v>
       </c>
       <c r="X2" t="n">
-        <v>1385.191261550316</v>
+        <v>2439.447117580485</v>
       </c>
       <c r="Y2" t="n">
-        <v>1380.945541890374</v>
+        <v>2435.201397920543</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1298.296211021817</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>1191.839749858459</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1096.749461005013</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>1002.629046331966</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>919.2452079481279</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>833.8601182143118</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>792.1244660305242</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>818.1881391909818</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1142.746464157194</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1750.449110465754</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1797.452510782917</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1797.452510782917</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1797.452510782917</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1797.452510782917</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1797.452510782917</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2338.191449414993</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2391.908789957716</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2261.730146288318</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2085.393599288286</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1886.276081350285</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1700.95332708348</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1546.085891322359</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1419.60011210158</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>766.5367714259833</v>
+        <v>526.7806337295174</v>
       </c>
       <c r="C4" t="n">
-        <v>593.9750599092082</v>
+        <v>354.2189222127423</v>
       </c>
       <c r="D4" t="n">
-        <v>428.0970671107308</v>
+        <v>188.340929414265</v>
       </c>
       <c r="E4" t="n">
-        <v>428.0970671107308</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018666</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>323.8657391213222</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>742.0756208892833</v>
       </c>
       <c r="M4" t="n">
-        <v>1108.937756271182</v>
+        <v>1201.559488070196</v>
       </c>
       <c r="N4" t="n">
-        <v>1528.990655216085</v>
+        <v>1643.818291227841</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2063.487540453622</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2410.994434423964</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214705</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2274.705037512701</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2028.825591091157</v>
       </c>
       <c r="U4" t="n">
-        <v>1517.337302688248</v>
+        <v>1750.392590344262</v>
       </c>
       <c r="V4" t="n">
-        <v>1230.381794558679</v>
+        <v>1463.437082214692</v>
       </c>
       <c r="W4" t="n">
-        <v>958.3553901449704</v>
+        <v>1191.410677800984</v>
       </c>
       <c r="X4" t="n">
-        <v>958.3553901449704</v>
+        <v>946.0189231343963</v>
       </c>
       <c r="Y4" t="n">
-        <v>958.3553901449704</v>
+        <v>718.5992524485046</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>547.9560900011804</v>
+        <v>1671.54282645597</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1637.440757679797</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1201.530972854241</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1613.531556264254</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W5" t="n">
-        <v>1397.64384356672</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X5" t="n">
-        <v>978.5013801460308</v>
+        <v>1698.047712560416</v>
       </c>
       <c r="Y5" t="n">
-        <v>570.2152564456842</v>
+        <v>1693.801992900473</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>419.1124060907378</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>419.1124060907378</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>253.2344132922605</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>253.2344132922605</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>253.2344132922605</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>538.7332355342593</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>761.43086230084</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.765608785789</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1397.332608038895</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1110.377099909325</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>838.3506954956167</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>838.3506954956167</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>610.9310248097249</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.7215407443858</v>
+        <v>707.7581132933927</v>
       </c>
       <c r="C8" t="n">
-        <v>122.6194719682132</v>
+        <v>269.6156404768161</v>
       </c>
       <c r="D8" t="n">
-        <v>90.75009118306176</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>61.01575038176099</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>37.18872483137278</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>37.18872483137278</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137278</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851279</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851279</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>491.8246367576085</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>946.8773380567042</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>946.8773380567042</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>946.8773380567042</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1401.9300393558</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1838.596772925639</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925639</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925639</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925639</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1618.529545798678</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1618.529545798678</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1618.529545798678</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>1213.674091209711</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X8" t="n">
-        <v>794.5316277890219</v>
+        <v>1542.343807478647</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2455040886753</v>
+        <v>1134.057683778301</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330011</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599548</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230031</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851279</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897038</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842783</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842783</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842783</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>854.6084353282944</v>
+        <v>955.7523231022661</v>
       </c>
       <c r="C10" t="n">
-        <v>854.6084353282944</v>
+        <v>783.1906115854911</v>
       </c>
       <c r="D10" t="n">
-        <v>688.7304425298171</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E10" t="n">
-        <v>518.9724387805544</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F10" t="n">
-        <v>342.2653847423106</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>176.6741097681383</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851279</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851279</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232026</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.1100751943383</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>816.3199569622992</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1271.372658261395</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1271.372658261395</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.897104090965</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061307</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925639</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925639</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1679.355404223636</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1679.355404223636</v>
+        <v>2457.797280463905</v>
       </c>
       <c r="U10" t="n">
-        <v>1679.355404223636</v>
+        <v>2179.364279717011</v>
       </c>
       <c r="V10" t="n">
-        <v>1392.399896094066</v>
+        <v>1892.408771587441</v>
       </c>
       <c r="W10" t="n">
-        <v>1291.818808713869</v>
+        <v>1620.382367173733</v>
       </c>
       <c r="X10" t="n">
-        <v>1046.427054047281</v>
+        <v>1374.990612507145</v>
       </c>
       <c r="Y10" t="n">
-        <v>1046.427054047281</v>
+        <v>1147.570941821253</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5021,16 @@
         <v>1814.514395351991</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526436</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>944.829865684731</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>516.9624360939388</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>115.5646047172022</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
         <v>97.15276605397518</v>
@@ -5042,25 +5042,25 @@
         <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>531.9906641340331</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1607.050630386892</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940406</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940406</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
@@ -5121,19 +5121,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.2298140987272</v>
+        <v>1035.891962983371</v>
       </c>
       <c r="C13" t="n">
-        <v>633.6681025819521</v>
+        <v>863.3302514665961</v>
       </c>
       <c r="D13" t="n">
-        <v>467.7901097834749</v>
+        <v>697.4522586681187</v>
       </c>
       <c r="E13" t="n">
-        <v>298.0321060342121</v>
+        <v>527.694254918856</v>
       </c>
       <c r="F13" t="n">
-        <v>121.3250519959684</v>
+        <v>350.9872008806122</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111519</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
         <v>96.73597668111519</v>
@@ -5236,13 +5236,13 @@
         <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170194</v>
+        <v>1700.522007054838</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503606</v>
+        <v>1455.13025238825</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.0484328177142</v>
+        <v>1227.710581702358</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168567</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.514395351991</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526435</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
         <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G14" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5282,22 +5282,22 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>1366.340956092211</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940405</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429651</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363477</v>
+        <v>4170.462783046461</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774511</v>
+        <v>3765.607328457495</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653475</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1010.202862318824</v>
+        <v>1087.134188067672</v>
       </c>
       <c r="C16" t="n">
-        <v>837.6411508020492</v>
+        <v>914.5724765508967</v>
       </c>
       <c r="D16" t="n">
-        <v>671.7631580035719</v>
+        <v>748.6944837524194</v>
       </c>
       <c r="E16" t="n">
-        <v>502.0051542543092</v>
+        <v>578.9364800031567</v>
       </c>
       <c r="F16" t="n">
-        <v>325.2981002160653</v>
+        <v>402.2294259649129</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>236.6381509907405</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2563.032187437147</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2317.152741015602</v>
       </c>
       <c r="U16" t="n">
-        <v>2233.814818933569</v>
+        <v>2038.719740268708</v>
       </c>
       <c r="V16" t="n">
-        <v>1946.859310803999</v>
+        <v>1751.764232139138</v>
       </c>
       <c r="W16" t="n">
-        <v>1674.832906390291</v>
+        <v>1751.764232139138</v>
       </c>
       <c r="X16" t="n">
-        <v>1429.441151723703</v>
+        <v>1506.372477472551</v>
       </c>
       <c r="Y16" t="n">
-        <v>1202.021481037812</v>
+        <v>1278.952806786659</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2336.30874198473</v>
+        <v>2522.958394689265</v>
       </c>
       <c r="C17" t="n">
-        <v>1898.166269168154</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1462.256484342598</v>
+        <v>1648.906137047133</v>
       </c>
       <c r="E17" t="n">
-        <v>1028.481739500893</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>600.6143099101009</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107592</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
-        <v>531.9906641340331</v>
+        <v>403.2461837293691</v>
       </c>
       <c r="K17" t="n">
-        <v>1366.340956092211</v>
+        <v>1237.596475687547</v>
       </c>
       <c r="L17" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M17" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510712</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344108</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4616.731606928797</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U17" t="n">
-        <v>4357.509304245814</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V17" t="n">
-        <v>3994.89235417964</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W17" t="n">
-        <v>3590.036899590674</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X17" t="n">
-        <v>3170.894436169985</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y17" t="n">
-        <v>2762.608312469638</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5595,19 +5595,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2320137580464</v>
+        <v>784.8119928041</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6703022412713</v>
+        <v>612.2502812873249</v>
       </c>
       <c r="D19" t="n">
-        <v>608.792309442794</v>
+        <v>612.2502812873249</v>
       </c>
       <c r="E19" t="n">
-        <v>439.0343056935313</v>
+        <v>612.2502812873249</v>
       </c>
       <c r="F19" t="n">
-        <v>262.3272516552875</v>
+        <v>435.5432272490811</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111518</v>
+        <v>269.9519522749088</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583914</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T19" t="n">
-        <v>2449.276971119686</v>
+        <v>2286.856950165739</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.843970372791</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V19" t="n">
-        <v>1883.888462243221</v>
+        <v>1721.468441289275</v>
       </c>
       <c r="W19" t="n">
-        <v>1611.862057829513</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X19" t="n">
-        <v>1366.470303162925</v>
+        <v>1204.050282208979</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.050632477034</v>
+        <v>976.6306115230871</v>
       </c>
     </row>
     <row r="20">
@@ -5744,34 +5744,34 @@
         <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
-        <v>97.1527660539752</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J20" t="n">
-        <v>403.2461837293682</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
-        <v>1237.596475687546</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M20" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510712</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344108</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
@@ -5780,22 +5780,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V20" t="n">
         <v>3911.240480363478</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774511</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X20" t="n">
         <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580465</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412714</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D22" t="n">
-        <v>608.7923094427941</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935313</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F22" t="n">
         <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5938,10 +5938,10 @@
         <v>2695.15641754123</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.276971119685</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.84397037279</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V22" t="n">
         <v>1883.888462243221</v>
@@ -5953,7 +5953,7 @@
         <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477034</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="23">
@@ -6069,22 +6069,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903953</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>970.9960463903953</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>805.1180535919181</v>
+        <v>842.879296567409</v>
       </c>
       <c r="E25" t="n">
-        <v>635.3600498426554</v>
+        <v>673.1212928181462</v>
       </c>
       <c r="F25" t="n">
-        <v>458.6529958044114</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>293.0617208302391</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>153.1595465206136</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354698</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>2026.844126920462</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461862</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109383</v>
+        <v>1373.137619601649</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2429.112734044803</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2150.679733297908</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1863.724225168339</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1591.69782075463</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="29">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>949.5782250957668</v>
+        <v>949.5782250957672</v>
       </c>
       <c r="C31" t="n">
-        <v>777.0165135789917</v>
+        <v>777.0165135789921</v>
       </c>
       <c r="D31" t="n">
-        <v>611.1385207805145</v>
+        <v>611.1385207805148</v>
       </c>
       <c r="E31" t="n">
-        <v>441.3805170312517</v>
+        <v>441.3805170312521</v>
       </c>
       <c r="F31" t="n">
-        <v>264.6734629930079</v>
+        <v>264.6734629930085</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>264.6734629930085</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>124.771288683383</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6658,7 +6658,7 @@
         <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1614.208269167233</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X31" t="n">
         <v>1368.816514500646</v>
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>927.0677766831641</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>754.506065166389</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>588.6280723679117</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>418.870068618649</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>242.1630145804052</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878939</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798643</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y34" t="n">
-        <v>1118.886395402151</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,22 +6938,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.04201353898</v>
@@ -7017,19 +7017,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="C37" t="n">
-        <v>790.3368563937634</v>
+        <v>639.1929661716165</v>
       </c>
       <c r="D37" t="n">
-        <v>624.4588635952861</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E37" t="n">
-        <v>624.4588635952861</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F37" t="n">
-        <v>447.7518095570423</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798643</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7172,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7254,22 +7254,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>842.8792965674086</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>842.8792965674086</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755404</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008509</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878939</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.966900465231</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798643</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1034.697915286396</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7388,22 +7388,22 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7418,19 +7418,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R41" t="n">
         <v>5113.042013538981</v>
@@ -7491,22 +7491,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
         <v>1648.327823655249</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
         <v>267.852115244952</v>
@@ -7597,22 +7597,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7634,13 +7634,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436405</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7658,37 +7658,37 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
         <v>2955.199618136697</v>
@@ -7725,7 +7725,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K45" t="n">
         <v>1107.588885023173</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.396843814754</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C46" t="n">
-        <v>968.8351322979792</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D46" t="n">
-        <v>802.9571394995019</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E46" t="n">
-        <v>633.1991357502391</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F46" t="n">
-        <v>456.4920817119953</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1614.208269167234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803722</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.47818213854907</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8143,19 +8143,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>385.8845973035118</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>44.81797281350373</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.1525905495951</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,19 +8374,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>224.9470977440209</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314098</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314099</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314098</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>441.0775086564036</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314098</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.2218006662708</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314095</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,13 +8617,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314098</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>52.04489477734387</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8690,16 +8690,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>712.7331429833475</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N14" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457111</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9890,13 +9890,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10586,13 +10586,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10601,10 +10601,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10665,22 +10665,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>753.9218057523904</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11373,10 +11373,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>268.0111327346204</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>268.011132734621</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>227.3655273957975</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>268.0111327346212</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>11.3810530784674</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>8.789189859683091</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>223.1369608195779</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>185.1957776566205</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>267.5985112554902</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>54.79268646174512</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>139.5921776627263</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>268.011132734621</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>268.0111327346215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>37.38363054573576</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>90.22000922290094</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,10 +24649,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>114.1599680048244</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3.146865729424633</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>65.48800580459405</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>135.3636110865062</v>
+        <v>139.5921776627256</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>48.17580493063122</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>52.01701577190758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>39.52293549722775</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>626554.9314515564</v>
+        <v>638218.0496335811</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>626554.9314515564</v>
+        <v>641520.7339207572</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>628730.2971897973</v>
+        <v>641520.7339207572</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>633444.4998857214</v>
+        <v>633444.4998857215</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>633444.4998857214</v>
+        <v>633444.4998857215</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>660176.5816293478</v>
+        <v>660176.5816293476</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>660176.5816293479</v>
+        <v>660176.5816293478</v>
       </c>
     </row>
     <row r="14">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348495.7579287656</v>
+        <v>348495.7579287654</v>
       </c>
       <c r="C2" t="n">
         <v>348495.7579287654</v>
       </c>
       <c r="D2" t="n">
-        <v>348495.7579287653</v>
+        <v>348495.7579287656</v>
       </c>
       <c r="E2" t="n">
+        <v>328590.5336815897</v>
+      </c>
+      <c r="F2" t="n">
         <v>328590.5336815896</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>328590.5336815897</v>
       </c>
-      <c r="G2" t="n">
-        <v>328590.5336815896</v>
-      </c>
       <c r="H2" t="n">
-        <v>328590.5336815896</v>
+        <v>328590.5336815897</v>
       </c>
       <c r="I2" t="n">
         <v>342457.4296892789</v>
@@ -26341,19 +26341,19 @@
         <v>342457.4296892788</v>
       </c>
       <c r="L2" t="n">
-        <v>342457.4296892788</v>
+        <v>342457.4296892789</v>
       </c>
       <c r="M2" t="n">
-        <v>342457.4296892788</v>
+        <v>342457.429689279</v>
       </c>
       <c r="N2" t="n">
         <v>342457.4296892789</v>
       </c>
       <c r="O2" t="n">
-        <v>342457.4296892789</v>
+        <v>342457.4296892791</v>
       </c>
       <c r="P2" t="n">
-        <v>342457.4296892788</v>
+        <v>342457.429689279</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039026</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390701</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200282</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520273</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283952</v>
+        <v>18364.71563283946</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.829485613</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784543</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510015</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104675</v>
+        <v>134989.9446130035</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205960.9728418668</v>
+        <v>174244.3817256398</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="D4" t="n">
-        <v>200045.3005001108</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
         <v>78141.89423804611</v>
       </c>
       <c r="F4" t="n">
-        <v>78141.89423804609</v>
+        <v>78141.89423804611</v>
       </c>
       <c r="G4" t="n">
         <v>78141.89423804611</v>
@@ -26442,10 +26442,10 @@
         <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
         <v>81439.57146904283</v>
@@ -26457,7 +26457,7 @@
         <v>81439.57146904284</v>
       </c>
       <c r="P4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904286</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814187</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846971</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,7 +26500,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-59081.30371003347</v>
+        <v>-102410.0165589188</v>
       </c>
       <c r="C6" t="n">
-        <v>83109.99694967631</v>
+        <v>91679.60073354228</v>
       </c>
       <c r="D6" t="n">
-        <v>75894.37980818201</v>
+        <v>109020.1451074494</v>
       </c>
       <c r="E6" t="n">
-        <v>-46869.99658613127</v>
+        <v>15117.66340098478</v>
       </c>
       <c r="F6" t="n">
-        <v>176929.2971658961</v>
+        <v>176852.7386110992</v>
       </c>
       <c r="G6" t="n">
-        <v>176929.297165896</v>
+        <v>176852.7386110992</v>
       </c>
       <c r="H6" t="n">
-        <v>176929.297165896</v>
+        <v>176852.7386110992</v>
       </c>
       <c r="I6" t="n">
-        <v>164934.903981604</v>
+        <v>164911.6796422214</v>
       </c>
       <c r="J6" t="n">
-        <v>72285.15426945337</v>
+        <v>22668.56578944792</v>
       </c>
       <c r="K6" t="n">
-        <v>183299.6196144435</v>
+        <v>169462.3867072154</v>
       </c>
       <c r="L6" t="n">
-        <v>174352.0085259334</v>
+        <v>183276.3952750609</v>
       </c>
       <c r="M6" t="n">
-        <v>-3491.366996024037</v>
+        <v>48286.45066205752</v>
       </c>
       <c r="N6" t="n">
-        <v>183299.6196144435</v>
+        <v>183276.3952750609</v>
       </c>
       <c r="O6" t="n">
-        <v>183299.6196144435</v>
+        <v>183276.395275061</v>
       </c>
       <c r="P6" t="n">
-        <v>183299.6196144435</v>
+        <v>183276.395275061</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314098</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052371</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130548</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.55051528253</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080569</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052371</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130548</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825298</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773332</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052371</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130548</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.55051528253</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>64.79236478763687</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>106.8856919847591</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>30.2191152963326</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>97.6010046211785</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>187.0780644725182</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>110.0950357534112</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>34.6108747137564</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>194.8078510692122</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>270.9367814358977</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>54.48338453116335</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>169.7308638631759</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803722</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.47818213854907</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34860,22 +34860,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M4" t="n">
-        <v>385.8845973035118</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>44.81797281350373</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.1525905495951</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>224.9470977440209</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314098</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314099</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314098</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>441.0775086564036</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314098</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.2218006662708</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314095</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314098</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>52.04489477734387</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,16 +35410,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>712.7331429833475</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35650,13 +35650,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N14" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457111</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36437,7 +36437,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908098</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36610,13 +36610,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37306,13 +37306,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37321,10 +37321,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>753.9218057523904</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37707,13 +37707,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38093,10 +38093,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
